--- a/inst/results/BMF_computation_PFAS_ng_gdw/3.contam_PFAS_ng_gdw_uncensored.xlsx
+++ b/inst/results/BMF_computation_PFAS_ng_gdw/3.contam_PFAS_ng_gdw_uncensored.xlsx
@@ -650,37 +650,37 @@
         <v>0.3432606263982103</v>
       </c>
       <c r="AC2">
-        <v>0.2351798617429444</v>
+        <v>0.2719190311095092</v>
       </c>
       <c r="AD2">
-        <v>0.07527426740475957</v>
+        <v>0.07660944793707414</v>
       </c>
       <c r="AE2">
         <v>0.5809563758389261</v>
       </c>
       <c r="AF2">
-        <v>0.01440420917907576</v>
+        <v>0.01442933365096655</v>
       </c>
       <c r="AG2">
         <v>0.3873042505592841</v>
       </c>
       <c r="AH2">
-        <v>0.1052286218773033</v>
+        <v>0.1131145230132201</v>
       </c>
       <c r="AI2">
-        <v>0.04832891490549959</v>
+        <v>0.0499055849014418</v>
       </c>
       <c r="AJ2">
         <v>4.854263718910383</v>
       </c>
       <c r="AK2">
-        <v>0.2579819032280078</v>
+        <v>0.3612907236139722</v>
       </c>
       <c r="AL2">
-        <v>0.01413548926848131</v>
+        <v>0.01454356811099993</v>
       </c>
       <c r="AM2">
-        <v>6.916318239312876</v>
+        <v>7.067597184043987</v>
       </c>
     </row>
     <row r="3">
@@ -791,7 +791,7 @@
         <v>0.509077927376581</v>
       </c>
       <c r="AG3">
-        <v>0.02467887284777427</v>
+        <v>0.02401834761349227</v>
       </c>
       <c r="AH3">
         <v>1.479076967384261</v>
@@ -809,7 +809,7 @@
         <v>0.09317625458996327</v>
       </c>
       <c r="AM3">
-        <v>52.35301443077869</v>
+        <v>52.35235390554441</v>
       </c>
     </row>
     <row r="4">
@@ -911,7 +911,7 @@
         <v>0.9395423570435536</v>
       </c>
       <c r="AD4">
-        <v>0.08247926697925451</v>
+        <v>0.08446523887782129</v>
       </c>
       <c r="AE4">
         <v>1.251809552322919</v>
@@ -920,7 +920,7 @@
         <v>0.410081539924624</v>
       </c>
       <c r="AG4">
-        <v>0.02483824694336571</v>
+        <v>0.02475138362629163</v>
       </c>
       <c r="AH4">
         <v>0.4878181155171378</v>
@@ -935,10 +935,10 @@
         <v>1.007259498142535</v>
       </c>
       <c r="AL4">
-        <v>0.01383419380204676</v>
+        <v>0.01465121935080313</v>
       </c>
       <c r="AM4">
-        <v>13.68016367713502</v>
+        <v>13.68287981126527</v>
       </c>
     </row>
     <row r="5">
@@ -1049,13 +1049,13 @@
         <v>0.3617204016913319</v>
       </c>
       <c r="AG5">
-        <v>0.02222059843207014</v>
+        <v>0.02463678940045841</v>
       </c>
       <c r="AH5">
         <v>0.3654114737861318</v>
       </c>
       <c r="AI5">
-        <v>0.04380387077359114</v>
+        <v>0.04694134108758115</v>
       </c>
       <c r="AJ5">
         <v>10.58905875246504</v>
@@ -1064,10 +1064,10 @@
         <v>1.412190592410326</v>
       </c>
       <c r="AL5">
-        <v>0.01215022448888202</v>
+        <v>0.01470874443285517</v>
       </c>
       <c r="AM5">
-        <v>17.05248400271658</v>
+        <v>17.06059618394293</v>
       </c>
     </row>
     <row r="6">
@@ -1169,7 +1169,7 @@
         <v>2.353110988634501</v>
       </c>
       <c r="AD6">
-        <v>0.08140636868165811</v>
+        <v>0.08485922609577899</v>
       </c>
       <c r="AE6">
         <v>2.15767101978801</v>
@@ -1178,13 +1178,13 @@
         <v>0.6395832579676589</v>
       </c>
       <c r="AG6">
-        <v>0.02398423498057024</v>
+        <v>0.02236041039322499</v>
       </c>
       <c r="AH6">
-        <v>0.1068768047646343</v>
+        <v>0.1077945518889229</v>
       </c>
       <c r="AI6">
-        <v>0.04560823675153221</v>
+        <v>0.04390925457999888</v>
       </c>
       <c r="AJ6">
         <v>21.97837639694242</v>
@@ -1196,7 +1196,7 @@
         <v>0.1297616032992077</v>
       </c>
       <c r="AM6">
-        <v>33.00510464352609</v>
+        <v>33.00615244130562</v>
       </c>
     </row>
     <row r="7">
@@ -1307,10 +1307,10 @@
         <v>0.5470698254364088</v>
       </c>
       <c r="AG7">
-        <v>0.02493300053824807</v>
+        <v>0.02477139717212583</v>
       </c>
       <c r="AH7">
-        <v>0.1144343646951904</v>
+        <v>0.09317875670727645</v>
       </c>
       <c r="AI7">
         <v>0.1954488778054863</v>
@@ -1322,10 +1322,10 @@
         <v>1.869227666128795</v>
       </c>
       <c r="AL7">
-        <v>0.01431236134871793</v>
+        <v>0.01460927758393674</v>
       </c>
       <c r="AM7">
-        <v>17.18580059334436</v>
+        <v>17.16468029822554</v>
       </c>
     </row>
     <row r="8">
@@ -1436,10 +1436,10 @@
         <v>0.4457368772867998</v>
       </c>
       <c r="AG8">
-        <v>0.02144000311197262</v>
+        <v>0.02405168291098858</v>
       </c>
       <c r="AH8">
-        <v>0.1138507134765386</v>
+        <v>0.1022963768449336</v>
       </c>
       <c r="AI8">
         <v>0.2247792358570222</v>
@@ -1451,10 +1451,10 @@
         <v>2.06362948254168</v>
       </c>
       <c r="AL8">
-        <v>0.01432907173049137</v>
+        <v>0.0148620061315173</v>
       </c>
       <c r="AM8">
-        <v>18.0304682213238</v>
+        <v>18.02205849889224</v>
       </c>
     </row>
     <row r="9">
@@ -1556,7 +1556,7 @@
         <v>1.661443741796921</v>
       </c>
       <c r="AD9">
-        <v>0.08460609226713299</v>
+        <v>0.07864125531130989</v>
       </c>
       <c r="AE9">
         <v>1.077051447538263</v>
@@ -1565,7 +1565,7 @@
         <v>0.4227411027106767</v>
       </c>
       <c r="AG9">
-        <v>0.02000011263632487</v>
+        <v>0.018865414459753</v>
       </c>
       <c r="AH9">
         <v>0.7104285125446085</v>
@@ -1580,10 +1580,10 @@
         <v>1.245025056675814</v>
       </c>
       <c r="AL9">
-        <v>0.01417101175926727</v>
+        <v>0.01431970021995102</v>
       </c>
       <c r="AM9">
-        <v>16.32323632872355</v>
+        <v>16.31628548205184</v>
       </c>
     </row>
     <row r="10">
@@ -1685,7 +1685,7 @@
         <v>2.166319914167094</v>
       </c>
       <c r="AD10">
-        <v>0.08118201073924926</v>
+        <v>0.07635088827498511</v>
       </c>
       <c r="AE10">
         <v>1.532117367168914</v>
@@ -1712,7 +1712,7 @@
         <v>0.2645336424083451</v>
       </c>
       <c r="AM10">
-        <v>26.61125600214879</v>
+        <v>26.60642487968452</v>
       </c>
     </row>
     <row r="11">
@@ -1814,7 +1814,7 @@
         <v>2.140440884107122</v>
       </c>
       <c r="AD11">
-        <v>0.08094543912123495</v>
+        <v>0.08492142318572045</v>
       </c>
       <c r="AE11">
         <v>1.004075546719682</v>
@@ -1841,7 +1841,7 @@
         <v>0.1652087475149105</v>
       </c>
       <c r="AM11">
-        <v>24.98081562974221</v>
+        <v>24.9847916138067</v>
       </c>
     </row>
     <row r="12">
@@ -1943,13 +1943,13 @@
         <v>3.395258453905696</v>
       </c>
       <c r="AD12">
-        <v>0.07401068829151711</v>
+        <v>0.08154955318269916</v>
       </c>
       <c r="AE12">
         <v>0.8524689874748445</v>
       </c>
       <c r="AF12">
-        <v>0.01493255335682131</v>
+        <v>0.01497310671333643</v>
       </c>
       <c r="AG12">
         <v>0.9658937314150121</v>
@@ -1970,7 +1970,7 @@
         <v>0.2307729853122278</v>
       </c>
       <c r="AM12">
-        <v>37.91824312097291</v>
+        <v>37.92582253922061</v>
       </c>
     </row>
     <row r="13">
@@ -2072,7 +2072,7 @@
         <v>1.796883781852822</v>
       </c>
       <c r="AD13">
-        <v>0.08137932944126422</v>
+        <v>0.08456327765055979</v>
       </c>
       <c r="AE13">
         <v>0.736336032388664</v>
@@ -2096,10 +2096,10 @@
         <v>1.228065015479876</v>
       </c>
       <c r="AL13">
-        <v>0.0146795816229089</v>
+        <v>0.0140747762322231</v>
       </c>
       <c r="AM13">
-        <v>17.61636573014808</v>
+        <v>17.61894487296669</v>
       </c>
     </row>
     <row r="14">
@@ -2201,7 +2201,7 @@
         <v>0.6177004851987135</v>
       </c>
       <c r="AD14">
-        <v>0.08449702166373885</v>
+        <v>0.08473138078175339</v>
       </c>
       <c r="AE14">
         <v>0.4654772937905468</v>
@@ -2210,13 +2210,13 @@
         <v>0.1900834105653383</v>
       </c>
       <c r="AG14">
-        <v>0.02129211452606473</v>
+        <v>0.02378316254324163</v>
       </c>
       <c r="AH14">
         <v>0.463973722946083</v>
       </c>
       <c r="AI14">
-        <v>0.04789826721332908</v>
+        <v>0.04697768869102525</v>
       </c>
       <c r="AJ14">
         <v>3.648586926893092</v>
@@ -2225,10 +2225,10 @@
         <v>0.8819108106634683</v>
       </c>
       <c r="AL14">
-        <v>0.01481852417468647</v>
+        <v>0.01498548458381756</v>
       </c>
       <c r="AM14">
-        <v>7.253337743529408</v>
+        <v>7.255309532551427</v>
       </c>
     </row>
     <row r="15">
@@ -2330,7 +2330,7 @@
         <v>0.6648406547013358</v>
       </c>
       <c r="AD15">
-        <v>0.08365319097335561</v>
+        <v>0.08415505964378364</v>
       </c>
       <c r="AE15">
         <v>0.3625897129186602</v>
@@ -2351,13 +2351,13 @@
         <v>2.423801798047154</v>
       </c>
       <c r="AK15">
-        <v>0.240874745127627</v>
+        <v>0.2613264273785352</v>
       </c>
       <c r="AL15">
-        <v>0.01480005753163246</v>
+        <v>0.01466536521257176</v>
       </c>
       <c r="AM15">
-        <v>5.778244321113184</v>
+        <v>5.799063179715459</v>
       </c>
     </row>
     <row r="16">
@@ -2459,7 +2459,7 @@
         <v>1.566299023280164</v>
       </c>
       <c r="AD16">
-        <v>0.08038375958080712</v>
+        <v>0.07754314717210281</v>
       </c>
       <c r="AE16">
         <v>0.5420874411914537</v>
@@ -2468,7 +2468,7 @@
         <v>0.2349345239878937</v>
       </c>
       <c r="AG16">
-        <v>0.02012821811128424</v>
+        <v>0.02071249835798983</v>
       </c>
       <c r="AH16">
         <v>0.7014572356766265</v>
@@ -2486,7 +2486,7 @@
         <v>0.1351472835695664</v>
       </c>
       <c r="AM16">
-        <v>14.96331218992286</v>
+        <v>14.96105585776086</v>
       </c>
     </row>
     <row r="17">
@@ -2588,7 +2588,7 @@
         <v>1.739239110097771</v>
       </c>
       <c r="AD17">
-        <v>0.06570222794498844</v>
+        <v>0.07097312124376257</v>
       </c>
       <c r="AE17">
         <v>1.604242177675864</v>
@@ -2597,7 +2597,7 @@
         <v>0.4745543309416377</v>
       </c>
       <c r="AG17">
-        <v>0.02115127344999788</v>
+        <v>0.02474174945753926</v>
       </c>
       <c r="AH17">
         <v>0.6298318706134721</v>
@@ -2609,13 +2609,13 @@
         <v>6.758136261383759</v>
       </c>
       <c r="AK17">
-        <v>0.3609444882929875</v>
+        <v>0.1428400263176172</v>
       </c>
       <c r="AL17">
         <v>0.1130076189067239</v>
       </c>
       <c r="AM17">
-        <v>12.73028668751195</v>
+        <v>12.5210435948429</v>
       </c>
     </row>
     <row r="18">
@@ -2726,7 +2726,7 @@
         <v>0.2963324507885346</v>
       </c>
       <c r="AG18">
-        <v>0.02348634118154503</v>
+        <v>0.02490560921933642</v>
       </c>
       <c r="AH18">
         <v>0.63651893634166</v>
@@ -2738,13 +2738,13 @@
         <v>5.413938068378036</v>
       </c>
       <c r="AK18">
-        <v>0.3475882601651841</v>
+        <v>0.3469825062008602</v>
       </c>
       <c r="AL18">
         <v>0.2186807873834466</v>
       </c>
       <c r="AM18">
-        <v>12.63629407164275</v>
+        <v>12.63710758571622</v>
       </c>
     </row>
     <row r="19">
@@ -2843,7 +2843,7 @@
         <v>0.2486807263098166</v>
       </c>
       <c r="AC19">
-        <v>0.2712841666561714</v>
+        <v>0.2270240445958273</v>
       </c>
       <c r="AD19">
         <v>0.1871810027498509</v>
@@ -2858,22 +2858,22 @@
         <v>0.525033100056743</v>
       </c>
       <c r="AH19">
-        <v>0.06687508500022528</v>
+        <v>0.06613689305320689</v>
       </c>
       <c r="AI19">
-        <v>0.0316171195695482</v>
+        <v>0.04695064316145678</v>
       </c>
       <c r="AJ19">
         <v>1.590169283147343</v>
       </c>
       <c r="AK19">
-        <v>0.3314990915724124</v>
+        <v>0.3445295828459537</v>
       </c>
       <c r="AL19">
-        <v>0.01444635877715359</v>
+        <v>0.007434094180388235</v>
       </c>
       <c r="AM19">
-        <v>3.929813170457384</v>
+        <v>3.906166606718706</v>
       </c>
     </row>
     <row r="20">
@@ -2990,19 +2990,19 @@
         <v>0.2608429828624363</v>
       </c>
       <c r="AI20">
-        <v>0.01783367846568426</v>
+        <v>0.04413760031161477</v>
       </c>
       <c r="AJ20">
         <v>3.552339045854562</v>
       </c>
       <c r="AK20">
-        <v>0.359300343037579</v>
+        <v>0.2057292775625408</v>
       </c>
       <c r="AL20">
-        <v>0.0119462812368897</v>
+        <v>0.005713881427426464</v>
       </c>
       <c r="AM20">
-        <v>6.68293411682787</v>
+        <v>6.5494345733893</v>
       </c>
     </row>
     <row r="21">
@@ -3101,10 +3101,10 @@
         <v>0.2419252018699532</v>
       </c>
       <c r="AC21">
-        <v>0.1891703691006932</v>
+        <v>0.2460746963626258</v>
       </c>
       <c r="AD21">
-        <v>0.06039780415210101</v>
+        <v>0.08074959720863771</v>
       </c>
       <c r="AE21">
         <v>0.2448052637969765</v>
@@ -3131,7 +3131,7 @@
         <v>0.08928191973772083</v>
       </c>
       <c r="AM21">
-        <v>4.213111406100544</v>
+        <v>4.290367526419013</v>
       </c>
     </row>
     <row r="22">
@@ -3230,37 +3230,37 @@
         <v>0.168359572272358</v>
       </c>
       <c r="AC22">
-        <v>0.1598479184430814</v>
+        <v>0.2756922313840853</v>
       </c>
       <c r="AD22">
-        <v>0.07782780317787352</v>
+        <v>0.08341166589372626</v>
       </c>
       <c r="AE22">
         <v>0.3165975012625431</v>
       </c>
       <c r="AF22">
-        <v>0.01470853973625704</v>
+        <v>0.009676793876782532</v>
       </c>
       <c r="AG22">
-        <v>0.02264433376865494</v>
+        <v>0.02488358529816255</v>
       </c>
       <c r="AH22">
         <v>0.3229651098961421</v>
       </c>
       <c r="AI22">
-        <v>0.04137682658522306</v>
+        <v>0.0456313210523585</v>
       </c>
       <c r="AJ22">
         <v>1.514981446105878</v>
       </c>
       <c r="AK22">
-        <v>0.2981356295007114</v>
+        <v>0.3275980027166761</v>
       </c>
       <c r="AL22">
-        <v>0.01239683912183945</v>
+        <v>0.01202785481757197</v>
       </c>
       <c r="AM22">
-        <v>2.949841519870562</v>
+        <v>3.101825084576284</v>
       </c>
     </row>
     <row r="23">
@@ -3359,37 +3359,37 @@
         <v>0.1816608996539793</v>
       </c>
       <c r="AC23">
-        <v>0.2689512222417715</v>
+        <v>0.2467701496497293</v>
       </c>
       <c r="AD23">
-        <v>0.08158947245314283</v>
+        <v>0.07778051218362182</v>
       </c>
       <c r="AE23">
         <v>0.424567474048443</v>
       </c>
       <c r="AF23">
-        <v>0.01374029742620901</v>
+        <v>0.01495685360134686</v>
       </c>
       <c r="AG23">
-        <v>0.0219915919086897</v>
+        <v>0.02331736091477027</v>
       </c>
       <c r="AH23">
         <v>0.321482122260669</v>
       </c>
       <c r="AI23">
-        <v>0.04320537195475404</v>
+        <v>0.02532737085962699</v>
       </c>
       <c r="AJ23">
         <v>1.445934256055363</v>
       </c>
       <c r="AK23">
-        <v>0.3196181349003206</v>
+        <v>0.3365413779700273</v>
       </c>
       <c r="AL23">
-        <v>0.01293436497762751</v>
+        <v>0.01262218668361418</v>
       </c>
       <c r="AM23">
-        <v>3.13567520788097</v>
+        <v>3.110960563881191</v>
       </c>
     </row>
     <row r="24">
@@ -3488,37 +3488,37 @@
         <v>0.1975587166638961</v>
       </c>
       <c r="AC24">
-        <v>0.2404334861636604</v>
+        <v>0.2784581151927478</v>
       </c>
       <c r="AD24">
-        <v>0.0637118546698744</v>
+        <v>0.06181476147179694</v>
       </c>
       <c r="AE24">
         <v>0.4587285378422666</v>
       </c>
       <c r="AF24">
-        <v>0.01420965013700778</v>
+        <v>0.01464910899258698</v>
       </c>
       <c r="AG24">
-        <v>0.02089560726396153</v>
+        <v>0.02363125938200379</v>
       </c>
       <c r="AH24">
         <v>0.3924909164311667</v>
       </c>
       <c r="AI24">
-        <v>0.01622263233672203</v>
+        <v>0.04399869634404441</v>
       </c>
       <c r="AJ24">
         <v>1.581253413759529</v>
       </c>
       <c r="AK24">
-        <v>0.3373341143448598</v>
+        <v>0.1569654849128302</v>
       </c>
       <c r="AL24">
-        <v>0.008335853784532641</v>
+        <v>0.01362927274277277</v>
       </c>
       <c r="AM24">
-        <v>3.331174783397477</v>
+        <v>3.223178283735642</v>
       </c>
     </row>
     <row r="25">
@@ -3626,10 +3626,10 @@
         <v>0.8738955823293172</v>
       </c>
       <c r="AF25">
-        <v>0.01475868174230127</v>
+        <v>0.01412474765063749</v>
       </c>
       <c r="AG25">
-        <v>0.02464166768268823</v>
+        <v>0.02496813187856854</v>
       </c>
       <c r="AH25">
         <v>7.966387904559416</v>
@@ -3641,13 +3641,13 @@
         <v>3.9616536735176</v>
       </c>
       <c r="AK25">
-        <v>0.273061874124261</v>
+        <v>0.3647241608528876</v>
       </c>
       <c r="AL25">
         <v>0.06274509803921569</v>
       </c>
       <c r="AM25">
-        <v>18.51035042795057</v>
+        <v>18.60170524478341</v>
       </c>
     </row>
     <row r="26">
@@ -3746,7 +3746,7 @@
         <v>0.3572713963277009</v>
       </c>
       <c r="AC26">
-        <v>0.2614027138719098</v>
+        <v>0.2182451496445895</v>
       </c>
       <c r="AD26">
         <v>0.2591769352772525</v>
@@ -3773,10 +3773,10 @@
         <v>0.5431534173481508</v>
       </c>
       <c r="AL26">
-        <v>0.01323382305676667</v>
+        <v>0.01256550217336022</v>
       </c>
       <c r="AM26">
-        <v>8.52149620802215</v>
+        <v>8.477670322911424</v>
       </c>
     </row>
     <row r="27">
@@ -3875,10 +3875,10 @@
         <v>0.4835849144779886</v>
       </c>
       <c r="AC27">
-        <v>0.1662952986308817</v>
+        <v>0.2394399633480642</v>
       </c>
       <c r="AD27">
-        <v>0.08159816631823766</v>
+        <v>0.08181758326156444</v>
       </c>
       <c r="AE27">
         <v>1.010951179237935</v>
@@ -3905,7 +3905,7 @@
         <v>0.2058292052216718</v>
       </c>
       <c r="AM27">
-        <v>14.91840523167095</v>
+        <v>14.99176931333146</v>
       </c>
     </row>
     <row r="28">
@@ -4145,7 +4145,7 @@
         <v>0.2481477097881405</v>
       </c>
       <c r="AG29">
-        <v>0.02415522472657193</v>
+        <v>0.02023526928732068</v>
       </c>
       <c r="AH29">
         <v>3.942525742691442</v>
@@ -4163,7 +4163,7 @@
         <v>0.03150668718191501</v>
       </c>
       <c r="AM29">
-        <v>12.31842294264797</v>
+        <v>12.31450298720872</v>
       </c>
     </row>
     <row r="30">
@@ -4274,7 +4274,7 @@
         <v>0.2481246510683652</v>
       </c>
       <c r="AG30">
-        <v>0.02483440063639947</v>
+        <v>0.023194779677088</v>
       </c>
       <c r="AH30">
         <v>5.668893061970258</v>
@@ -4292,7 +4292,7 @@
         <v>0.04385119017408517</v>
       </c>
       <c r="AM30">
-        <v>16.7989908157079</v>
+        <v>16.79735119474859</v>
       </c>
     </row>
     <row r="31">
@@ -4391,10 +4391,10 @@
         <v>0.3495746677564859</v>
       </c>
       <c r="AC31">
-        <v>0.2671491721939683</v>
+        <v>0.1834664254040068</v>
       </c>
       <c r="AD31">
-        <v>0.04132464755492413</v>
+        <v>0.08070737541017239</v>
       </c>
       <c r="AE31">
         <v>0.3343247661429479</v>
@@ -4415,13 +4415,13 @@
         <v>2.449732353208289</v>
       </c>
       <c r="AK31">
-        <v>0.2245532731435363</v>
+        <v>0.3245008933998436</v>
       </c>
       <c r="AL31">
-        <v>0.01456413130324137</v>
+        <v>0.0102152101973486</v>
       </c>
       <c r="AM31">
-        <v>9.642415740143182</v>
+        <v>9.693714420358882</v>
       </c>
     </row>
     <row r="32">
@@ -4529,28 +4529,28 @@
         <v>0.3408079142621599</v>
       </c>
       <c r="AF32">
-        <v>0.01398039474922434</v>
+        <v>0.01218284746928905</v>
       </c>
       <c r="AG32">
-        <v>0.02379840752653158</v>
+        <v>0.02477713420304171</v>
       </c>
       <c r="AH32">
         <v>1.247378885602056</v>
       </c>
       <c r="AI32">
-        <v>0.04841381628881842</v>
+        <v>0.03891586787727754</v>
       </c>
       <c r="AJ32">
         <v>3.449391397119441</v>
       </c>
       <c r="AK32">
-        <v>0.193841497118575</v>
+        <v>0.2449951409100675</v>
       </c>
       <c r="AL32">
         <v>0.08404539062121139</v>
       </c>
       <c r="AM32">
-        <v>7.369913551508465</v>
+        <v>7.410750426284991</v>
       </c>
     </row>
     <row r="33">
@@ -4652,13 +4652,13 @@
         <v>0.5839192062367116</v>
       </c>
       <c r="AD33">
-        <v>0.03799102685854085</v>
+        <v>0.06278413413264095</v>
       </c>
       <c r="AE33">
         <v>0.3518690145196169</v>
       </c>
       <c r="AF33">
-        <v>0.01448428925718102</v>
+        <v>0.01464647484002303</v>
       </c>
       <c r="AG33">
         <v>0.7431263515600864</v>
@@ -4673,13 +4673,13 @@
         <v>3.84721219720511</v>
       </c>
       <c r="AK33">
-        <v>0.2302154808214014</v>
+        <v>0.34113471710888</v>
       </c>
       <c r="AL33">
         <v>0.2221501390176089</v>
       </c>
       <c r="AM33">
-        <v>12.66608755137569</v>
+        <v>12.80196208052011</v>
       </c>
     </row>
     <row r="34">
@@ -4781,13 +4781,13 @@
         <v>2.262269082128248</v>
       </c>
       <c r="AD34">
-        <v>0.07182876232177826</v>
+        <v>0.07424808811527187</v>
       </c>
       <c r="AE34">
         <v>0.3705430502588907</v>
       </c>
       <c r="AF34">
-        <v>0.01269773320432596</v>
+        <v>0.01236815440391572</v>
       </c>
       <c r="AG34">
         <v>0.6681200198431153</v>
@@ -4808,7 +4808,7 @@
         <v>0.3160132390785354</v>
       </c>
       <c r="AM34">
-        <v>29.91779025028855</v>
+        <v>29.91987999728163</v>
       </c>
     </row>
     <row r="35">
@@ -4916,7 +4916,7 @@
         <v>0.5435085557188226</v>
       </c>
       <c r="AF35">
-        <v>0.01200636366898769</v>
+        <v>0.01311319729126406</v>
       </c>
       <c r="AG35">
         <v>0.8755368061809736</v>
@@ -4925,19 +4925,19 @@
         <v>0.4717921979428356</v>
       </c>
       <c r="AI35">
-        <v>0.04069157899097921</v>
+        <v>0.03474621731108939</v>
       </c>
       <c r="AJ35">
         <v>12.56559700431341</v>
       </c>
       <c r="AK35">
-        <v>0.276371983605934</v>
+        <v>0.3378755727592667</v>
       </c>
       <c r="AL35">
         <v>0.06298525856756886</v>
       </c>
       <c r="AM35">
-        <v>16.52924548895983</v>
+        <v>16.58591055005555</v>
       </c>
     </row>
     <row r="36">
@@ -5048,25 +5048,25 @@
         <v>0.1141299505738105</v>
       </c>
       <c r="AG36">
-        <v>0.023955372034869</v>
+        <v>0.02475807424131759</v>
       </c>
       <c r="AH36">
         <v>0.6392524553997582</v>
       </c>
       <c r="AI36">
-        <v>0.04348892057425634</v>
+        <v>0.03491207128681022</v>
       </c>
       <c r="AJ36">
         <v>18.16728113531745</v>
       </c>
       <c r="AK36">
-        <v>0.3503824667442179</v>
+        <v>0.2009831437141572</v>
       </c>
       <c r="AL36">
         <v>0.1023694872828324</v>
       </c>
       <c r="AM36">
-        <v>22.03329965327387</v>
+        <v>21.87612618316281</v>
       </c>
     </row>
     <row r="37">
@@ -5174,10 +5174,10 @@
         <v>0.9539586645468999</v>
       </c>
       <c r="AF37">
-        <v>0.01186263603670844</v>
+        <v>0.01451093716385136</v>
       </c>
       <c r="AG37">
-        <v>0.02499355191372153</v>
+        <v>0.02108259426393427</v>
       </c>
       <c r="AH37">
         <v>0.9928775834658187</v>
@@ -5195,7 +5195,7 @@
         <v>0.6441335453100159</v>
       </c>
       <c r="AM37">
-        <v>28.13438077782796</v>
+        <v>28.13311812130532</v>
       </c>
     </row>
     <row r="38">
@@ -5300,31 +5300,31 @@
         <v>0.2029263538713612</v>
       </c>
       <c r="AE38">
-        <v>0.008312535791693514</v>
+        <v>0.008164250693802466</v>
       </c>
       <c r="AF38">
-        <v>0.0141286615178989</v>
+        <v>0.01466932263070464</v>
       </c>
       <c r="AG38">
-        <v>0.02398700325753689</v>
+        <v>0.022927530473584</v>
       </c>
       <c r="AH38">
         <v>0.2528742528788683</v>
       </c>
       <c r="AI38">
-        <v>0.04893045564647222</v>
+        <v>0.04026068414451394</v>
       </c>
       <c r="AJ38">
         <v>7.601970784390649</v>
       </c>
       <c r="AK38">
-        <v>0.2768269232669621</v>
+        <v>0.3512694597989441</v>
       </c>
       <c r="AL38">
         <v>0.102351556550435</v>
       </c>
       <c r="AM38">
-        <v>9.815289165484479</v>
+        <v>9.880394833745465</v>
       </c>
     </row>
     <row r="39">
@@ -5435,7 +5435,7 @@
         <v>0.1546432245394183</v>
       </c>
       <c r="AG39">
-        <v>0.02299863237389179</v>
+        <v>0.02269707427122321</v>
       </c>
       <c r="AH39">
         <v>0.4166557561021229</v>
@@ -5447,13 +5447,13 @@
         <v>15.95966052557748</v>
       </c>
       <c r="AK39">
-        <v>0.2213703025936365</v>
+        <v>0.345338960149411</v>
       </c>
       <c r="AL39">
         <v>0.1955344617974376</v>
       </c>
       <c r="AM39">
-        <v>20.38367052695078</v>
+        <v>20.50733762640388</v>
       </c>
     </row>
     <row r="40">
@@ -5564,25 +5564,25 @@
         <v>0.1056843559341545</v>
       </c>
       <c r="AG40">
-        <v>0.0225832550207558</v>
+        <v>0.02142569031168335</v>
       </c>
       <c r="AH40">
         <v>0.3160584781857949</v>
       </c>
       <c r="AI40">
-        <v>0.04549895146602807</v>
+        <v>0.03832994217983792</v>
       </c>
       <c r="AJ40">
         <v>13.51149994244273</v>
       </c>
       <c r="AK40">
-        <v>0.3317082436712278</v>
+        <v>0.3378081191809124</v>
       </c>
       <c r="AL40">
         <v>0.1658754460688385</v>
       </c>
       <c r="AM40">
-        <v>17.68491552653208</v>
+        <v>17.6826888280465</v>
       </c>
     </row>
     <row r="41">
@@ -5690,7 +5690,7 @@
         <v>0.558497594288375</v>
       </c>
       <c r="AF41">
-        <v>0.01377691487090295</v>
+        <v>0.01374536648046779</v>
       </c>
       <c r="AG41">
         <v>1.213844482383983</v>
@@ -5705,13 +5705,13 @@
         <v>18.59219086051307</v>
       </c>
       <c r="AK41">
-        <v>0.3442268225526861</v>
+        <v>0.3341564893946523</v>
       </c>
       <c r="AL41">
         <v>0.2126072592625441</v>
       </c>
       <c r="AM41">
-        <v>24.94517935863615</v>
+        <v>24.93507747708768</v>
       </c>
     </row>
     <row r="42">
@@ -5822,7 +5822,7 @@
         <v>0.4892719382835102</v>
       </c>
       <c r="AG42">
-        <v>0.02450697475833762</v>
+        <v>0.0249797196112368</v>
       </c>
       <c r="AH42">
         <v>1.936571841851495</v>
@@ -5834,13 +5834,13 @@
         <v>12.10594864995178</v>
       </c>
       <c r="AK42">
-        <v>0.3523500517570192</v>
+        <v>0.172254193060503</v>
       </c>
       <c r="AL42">
         <v>0.07690453230472516</v>
       </c>
       <c r="AM42">
-        <v>21.8724454936172</v>
+        <v>21.69282237977359</v>
       </c>
     </row>
     <row r="43">
@@ -5936,40 +5936,40 @@
         <v>0.015</v>
       </c>
       <c r="AB43">
-        <v>0.02464654844505223</v>
+        <v>0.01098519657170572</v>
       </c>
       <c r="AC43">
-        <v>0.2772945890905937</v>
+        <v>0.2367191195177888</v>
       </c>
       <c r="AD43">
-        <v>0.07451429048536493</v>
+        <v>0.04579831040374283</v>
       </c>
       <c r="AE43">
         <v>0.3860260185011172</v>
       </c>
       <c r="AF43">
-        <v>0.01437661425156883</v>
+        <v>0.01249081689044239</v>
       </c>
       <c r="AG43">
         <v>0.3634488087034601</v>
       </c>
       <c r="AH43">
-        <v>0.03264463599702166</v>
+        <v>0.1128842155393664</v>
       </c>
       <c r="AI43">
-        <v>0.04965968892542254</v>
+        <v>0.03735328671194401</v>
       </c>
       <c r="AJ43">
         <v>0.966777339263714</v>
       </c>
       <c r="AK43">
-        <v>0.335381693722667</v>
+        <v>0.3139248319676308</v>
       </c>
       <c r="AL43">
-        <v>0.0107855546707909</v>
+        <v>0.004876542582736985</v>
       </c>
       <c r="AM43">
-        <v>2.535555782056773</v>
+        <v>2.491284486653649</v>
       </c>
     </row>
     <row r="44">
@@ -6077,7 +6077,7 @@
         <v>0.5143817527010804</v>
       </c>
       <c r="AF44">
-        <v>0.01434166971703411</v>
+        <v>0.01470086355390859</v>
       </c>
       <c r="AG44">
         <v>0.525906362545018</v>
@@ -6086,19 +6086,19 @@
         <v>0.3834141656662665</v>
       </c>
       <c r="AI44">
-        <v>0.04704881512595238</v>
+        <v>0.03827358921202469</v>
       </c>
       <c r="AJ44">
         <v>2.452456182472989</v>
       </c>
       <c r="AK44">
-        <v>0.3526828772664764</v>
+        <v>0.2843989015923901</v>
       </c>
       <c r="AL44">
-        <v>0.009259218123165493</v>
+        <v>0.01399743261821913</v>
       </c>
       <c r="AM44">
-        <v>5.51251883935166</v>
+        <v>5.440557046095575</v>
       </c>
     </row>
     <row r="45">
@@ -6209,7 +6209,7 @@
         <v>0.1482734182164764</v>
       </c>
       <c r="AG45">
-        <v>0.02281030652947524</v>
+        <v>0.02422097098728024</v>
       </c>
       <c r="AH45">
         <v>0.9319484835895308</v>
@@ -6221,13 +6221,13 @@
         <v>3.799858256555635</v>
       </c>
       <c r="AK45">
-        <v>0.3325941363801764</v>
+        <v>0.3348015613309908</v>
       </c>
       <c r="AL45">
         <v>0.192678217942765</v>
       </c>
       <c r="AM45">
-        <v>9.278877834055763</v>
+        <v>9.282495923464383</v>
       </c>
     </row>
     <row r="46">
@@ -6329,34 +6329,34 @@
         <v>0.6138175419731666</v>
       </c>
       <c r="AD46">
-        <v>0.08337334564820284</v>
+        <v>0.07490708907867975</v>
       </c>
       <c r="AE46">
         <v>0.4723233705613529</v>
       </c>
       <c r="AF46">
-        <v>0.01398519373702809</v>
+        <v>0.01443728741939189</v>
       </c>
       <c r="AG46">
-        <v>0.02398970004623193</v>
+        <v>0.02495521802096246</v>
       </c>
       <c r="AH46">
         <v>0.6981646667807131</v>
       </c>
       <c r="AI46">
-        <v>0.04502551995641864</v>
+        <v>0.04973503405471684</v>
       </c>
       <c r="AJ46">
         <v>2.142618343556783</v>
       </c>
       <c r="AK46">
-        <v>0.311576948890124</v>
+        <v>0.3513539773557672</v>
       </c>
       <c r="AL46">
-        <v>0.01056398594765844</v>
+        <v>0.005644967034029885</v>
       </c>
       <c r="AM46">
-        <v>4.717596538845522</v>
+        <v>4.750115417583407</v>
       </c>
     </row>
     <row r="47">
@@ -6725,7 +6725,7 @@
         <v>0.1819494584837546</v>
       </c>
       <c r="AG49">
-        <v>0.02353787459808367</v>
+        <v>0.0229189355501691</v>
       </c>
       <c r="AH49">
         <v>0.5987966305655837</v>
@@ -6743,7 +6743,7 @@
         <v>1.700488426417499</v>
       </c>
       <c r="AM49">
-        <v>38.77756462461124</v>
+        <v>38.77694568556333</v>
       </c>
     </row>
     <row r="50">
@@ -6971,10 +6971,10 @@
         <v>0.1785095486526588</v>
       </c>
       <c r="AC51">
-        <v>0.2791329700369072</v>
+        <v>0.1772355815404863</v>
       </c>
       <c r="AD51">
-        <v>0.08102256102282794</v>
+        <v>0.07969852356004453</v>
       </c>
       <c r="AE51">
         <v>0.2852534341645528</v>
@@ -6983,25 +6983,25 @@
         <v>0.08533480112956492</v>
       </c>
       <c r="AG51">
-        <v>0.02489943442808719</v>
+        <v>0.02475836982921577</v>
       </c>
       <c r="AH51">
         <v>0.364456995165845</v>
       </c>
       <c r="AI51">
-        <v>0.0349381665388164</v>
+        <v>0.0476957429012258</v>
       </c>
       <c r="AJ51">
-        <v>0.3137380335690726</v>
+        <v>0.3116423117530858</v>
       </c>
       <c r="AK51">
-        <v>0.2199264812927437</v>
+        <v>0.2331140195198561</v>
       </c>
       <c r="AL51">
-        <v>0.01137980432048592</v>
+        <v>0.01492441059933334</v>
       </c>
       <c r="AM51">
-        <v>1.878592230321563</v>
+        <v>1.802623738815869</v>
       </c>
     </row>
     <row r="52">
@@ -7097,13 +7097,13 @@
         <v>0.1799194620527543</v>
       </c>
       <c r="AB52">
-        <v>0.02342968379486739</v>
+        <v>0.02796582562670677</v>
       </c>
       <c r="AC52">
-        <v>0.2660044299425367</v>
+        <v>0.2787526842564049</v>
       </c>
       <c r="AD52">
-        <v>0.06049068055791947</v>
+        <v>0.07424275650936288</v>
       </c>
       <c r="AE52">
         <v>0.4409703088572475</v>
@@ -7124,13 +7124,13 @@
         <v>1.605865012234832</v>
       </c>
       <c r="AK52">
-        <v>0.3469234014136868</v>
+        <v>0.2576170030542606</v>
       </c>
       <c r="AL52">
         <v>0.1799194620527543</v>
       </c>
       <c r="AM52">
-        <v>5.27462511715561</v>
+        <v>5.216355190893335</v>
       </c>
     </row>
     <row r="53">
@@ -7229,7 +7229,7 @@
         <v>0.2531497705465164</v>
       </c>
       <c r="AC53">
-        <v>0.2450985299017072</v>
+        <v>0.1348843327289444</v>
       </c>
       <c r="AD53">
         <v>0.2279861516186334</v>
@@ -7241,25 +7241,25 @@
         <v>0.2370512159807602</v>
       </c>
       <c r="AG53">
-        <v>0.02423828054275403</v>
+        <v>0.02383296498994424</v>
       </c>
       <c r="AH53">
         <v>0.9445434243785124</v>
       </c>
       <c r="AI53">
-        <v>0.02554810147403865</v>
+        <v>0.04045875065796323</v>
       </c>
       <c r="AJ53">
         <v>2.518658126579793</v>
       </c>
       <c r="AK53">
-        <v>0.2359950699318779</v>
+        <v>0.3195138981974465</v>
       </c>
       <c r="AL53">
         <v>0.1324106113033448</v>
       </c>
       <c r="AM53">
-        <v>5.584407864554437</v>
+        <v>5.572217829278356</v>
       </c>
     </row>
     <row r="54">
@@ -7355,10 +7355,10 @@
         <v>0.1516222391469916</v>
       </c>
       <c r="AB54">
-        <v>0.02159442153456325</v>
+        <v>0.02743618608888522</v>
       </c>
       <c r="AC54">
-        <v>0.1685031609755625</v>
+        <v>0.1548562384182344</v>
       </c>
       <c r="AD54">
         <v>0.2093678598629093</v>
@@ -7367,7 +7367,7 @@
         <v>0.6525514089870524</v>
       </c>
       <c r="AF54">
-        <v>0.01461226033561153</v>
+        <v>0.01424118665908182</v>
       </c>
       <c r="AG54">
         <v>1.042985529322163</v>
@@ -7376,19 +7376,19 @@
         <v>0.5305203171900902</v>
       </c>
       <c r="AI54">
-        <v>0.0278367294936347</v>
+        <v>0.047066896425582</v>
       </c>
       <c r="AJ54">
         <v>0.8907923480130818</v>
       </c>
       <c r="AK54">
-        <v>0.3069621698297192</v>
+        <v>0.3335217643093614</v>
       </c>
       <c r="AL54">
         <v>0.1516222391469916</v>
       </c>
       <c r="AM54">
-        <v>4.01734844469138</v>
+        <v>4.054961974423433</v>
       </c>
     </row>
     <row r="55">
@@ -7484,13 +7484,13 @@
         <v>0.015</v>
       </c>
       <c r="AB55">
-        <v>0.02846406509417924</v>
+        <v>0.02887618589850957</v>
       </c>
       <c r="AC55">
-        <v>0.1676245955199291</v>
+        <v>0.2774456329043707</v>
       </c>
       <c r="AD55">
-        <v>0.07411675541739304</v>
+        <v>0.08470865870652981</v>
       </c>
       <c r="AE55">
         <v>0.8857680512963482</v>
@@ -7511,13 +7511,13 @@
         <v>1.235001393922498</v>
       </c>
       <c r="AK55">
-        <v>0.3168797828770805</v>
+        <v>0.3097578664984416</v>
       </c>
       <c r="AL55">
-        <v>0.01255709771104054</v>
+        <v>0.01484071256654288</v>
       </c>
       <c r="AM55">
-        <v>4.833384513885676</v>
+        <v>4.949371273840448</v>
       </c>
     </row>
     <row r="56">
@@ -7640,13 +7640,13 @@
         <v>2.241082909509645</v>
       </c>
       <c r="AK56">
-        <v>0.3625700668466305</v>
+        <v>0.2476545759574107</v>
       </c>
       <c r="AL56">
         <v>0.2017819048814155</v>
       </c>
       <c r="AM56">
-        <v>9.524578409837485</v>
+        <v>9.409662918948266</v>
       </c>
     </row>
     <row r="57">
@@ -7769,13 +7769,13 @@
         <v>2.084750399962902</v>
       </c>
       <c r="AK57">
-        <v>0.3321060857634938</v>
+        <v>0.2876440504203455</v>
       </c>
       <c r="AL57">
         <v>0.1637366968860859</v>
       </c>
       <c r="AM57">
-        <v>8.935894898217011</v>
+        <v>8.891432862873863</v>
       </c>
     </row>
     <row r="58">
@@ -7883,7 +7883,7 @@
         <v>1.265531224655312</v>
       </c>
       <c r="AF58">
-        <v>0.01249916281434636</v>
+        <v>0.01493936651711896</v>
       </c>
       <c r="AG58">
         <v>1.262611516626115</v>
@@ -7898,13 +7898,13 @@
         <v>2.518830208482419</v>
       </c>
       <c r="AK58">
-        <v>0.3456888229291001</v>
+        <v>0.3421965056000528</v>
       </c>
       <c r="AL58">
         <v>0.1453365774533658</v>
       </c>
       <c r="AM58">
-        <v>9.204898726936797</v>
+        <v>9.203846613310521</v>
       </c>
     </row>
     <row r="59">
@@ -8003,7 +8003,7 @@
         <v>0.2405956044908752</v>
       </c>
       <c r="AC59">
-        <v>0.1194513415594369</v>
+        <v>0.2314822608632657</v>
       </c>
       <c r="AD59">
         <v>0.2416578025121959</v>
@@ -8015,25 +8015,25 @@
         <v>0.1217998179374919</v>
       </c>
       <c r="AG59">
-        <v>0.02466832877527604</v>
+        <v>0.02271210686089116</v>
       </c>
       <c r="AH59">
-        <v>0.08563027740846028</v>
+        <v>0.1088136987204116</v>
       </c>
       <c r="AI59">
-        <v>0.04143606589644487</v>
+        <v>0.03009881833662544</v>
       </c>
       <c r="AJ59">
         <v>1.859534440157788</v>
       </c>
       <c r="AK59">
-        <v>0.3539127968762289</v>
+        <v>0.3325784100616028</v>
       </c>
       <c r="AL59">
-        <v>0.01135666175732891</v>
+        <v>0.01382783814514204</v>
       </c>
       <c r="AM59">
-        <v>3.558567564091367</v>
+        <v>3.66162522480613</v>
       </c>
     </row>
     <row r="60">
@@ -8132,7 +8132,7 @@
         <v>0.2834383479740606</v>
       </c>
       <c r="AC60">
-        <v>0.2457905878678178</v>
+        <v>0.2326765917886964</v>
       </c>
       <c r="AD60">
         <v>0.3569656370396839</v>
@@ -8141,28 +8141,28 @@
         <v>0.7242790783240582</v>
       </c>
       <c r="AF60">
-        <v>0.01495709844426246</v>
+        <v>0.01152244967209814</v>
       </c>
       <c r="AG60">
         <v>1.217016970979166</v>
       </c>
       <c r="AH60">
-        <v>0.06133539149178305</v>
+        <v>0.1020509350888073</v>
       </c>
       <c r="AI60">
-        <v>0.04007773031649462</v>
+        <v>0.04861322806639543</v>
       </c>
       <c r="AJ60">
         <v>2.00746907050545</v>
       </c>
       <c r="AK60">
-        <v>0.294095906010975</v>
+        <v>0.3503777924279352</v>
       </c>
       <c r="AL60">
         <v>0.03079611829094421</v>
       </c>
       <c r="AM60">
-        <v>5.276221937244696</v>
+        <v>5.365206220157295</v>
       </c>
     </row>
     <row r="61">
@@ -8285,13 +8285,13 @@
         <v>4.565580893590242</v>
       </c>
       <c r="AK61">
-        <v>0.3386128607619878</v>
+        <v>0.3100067680216846</v>
       </c>
       <c r="AL61">
         <v>0.05681579814809266</v>
       </c>
       <c r="AM61">
-        <v>11.17769492879434</v>
+        <v>11.14908883605404</v>
       </c>
     </row>
   </sheetData>
